--- a/cortab/corpusTable_prep.xlsx
+++ b/cortab/corpusTable_prep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcharvat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_BBD01EE013E4BDB4BB46F4A2BF2F7BE092D2AFBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB8ACE0-F0EA-472A-9370-17118DF1B211}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD78659A-2D4C-4C62-942D-5C2B0876F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3129,7 +3129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="823">
   <si>
     <t>id</t>
   </si>
@@ -3152,16 +3152,14 @@
     <t>corpusLanguage_comments</t>
   </si>
   <si>
-    <t>corpusTextCount 
-(=Docs in Corpus)</t>
+    <t>corpusTextCount</t>
   </si>
   <si>
     <t>corpusTextCount 
 (=Docs in Corpus)_comments</t>
   </si>
   <si>
-    <t>corpusWordCount 
-(words in corpus)</t>
+    <t>corpusWordCount</t>
   </si>
   <si>
     <t>corpusWordCount 
@@ -5547,6 +5545,14 @@
   </si>
   <si>
     <t>classificationCLSProposal</t>
+  </si>
+  <si>
+    <t>corpusTextCount 
+(=Docs in Corpus)</t>
+  </si>
+  <si>
+    <t>corpusWordCount 
+(words in corpus)</t>
   </si>
   <si>
     <t>websiteStatus</t>
@@ -6059,12 +6065,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6186,21 +6191,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7829,8 +7830,8 @@
   <dimension ref="A1:AI87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="R83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T87" sqref="T87"/>
+      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -7861,7 +7862,7 @@
     <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="210">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="84" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8025,7 @@
       <c r="Z2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB2" s="10" t="s">
@@ -8107,7 +8108,7 @@
       <c r="Z3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB3" s="10"/>
@@ -8271,7 +8272,7 @@
       <c r="Z5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="AA5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB5" s="10"/>
@@ -8352,7 +8353,7 @@
       <c r="Z6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="41" t="s">
+      <c r="AA6" s="11" t="s">
         <v>75</v>
       </c>
       <c r="AB6" s="10"/>
@@ -8437,7 +8438,7 @@
       <c r="Z7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA7" s="41" t="s">
+      <c r="AA7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB7" s="10"/>
@@ -8518,7 +8519,7 @@
       <c r="Z8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA8" s="41" t="s">
+      <c r="AA8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB8" s="10"/>
@@ -8599,7 +8600,7 @@
       <c r="Z9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AA9" s="42"/>
+      <c r="AA9" s="41"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="10" t="s">
         <v>38</v>
@@ -8678,7 +8679,7 @@
       <c r="Z10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="41" t="s">
+      <c r="AA10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB10" s="10"/>
@@ -8759,7 +8760,7 @@
       <c r="Z11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AA11" s="42"/>
+      <c r="AA11" s="41"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="10" t="s">
         <v>38</v>
@@ -8840,7 +8841,7 @@
       <c r="Z12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA12" s="41" t="s">
+      <c r="AA12" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB12" s="10"/>
@@ -9000,7 +9001,7 @@
       <c r="Z14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA14" s="41" t="s">
+      <c r="AA14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB14" s="10"/>
@@ -9081,7 +9082,7 @@
       <c r="Z15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA15" s="41" t="s">
+      <c r="AA15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB15" s="10"/>
@@ -9162,7 +9163,7 @@
       <c r="Z16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA16" s="41" t="s">
+      <c r="AA16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AB16" s="10"/>
@@ -9247,7 +9248,7 @@
       <c r="Z17" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA17" s="43" t="s">
+      <c r="AA17" s="42" t="s">
         <v>153</v>
       </c>
       <c r="AB17" s="10"/>
@@ -9414,7 +9415,7 @@
       <c r="Z19" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA19" s="43" t="s">
+      <c r="AA19" s="42" t="s">
         <v>153</v>
       </c>
       <c r="AB19" s="10"/>
@@ -9741,7 +9742,7 @@
       <c r="Z23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA23" s="43" t="s">
+      <c r="AA23" s="42" t="s">
         <v>153</v>
       </c>
       <c r="AB23" s="10"/>
@@ -9905,7 +9906,7 @@
       <c r="Z25" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA25" s="43" t="s">
+      <c r="AA25" s="42" t="s">
         <v>153</v>
       </c>
       <c r="AB25" s="10"/>
@@ -11221,7 +11222,7 @@
       <c r="Z41" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="AA41" s="43" t="s">
+      <c r="AA41" s="42" t="s">
         <v>354</v>
       </c>
       <c r="AB41" s="10"/>
@@ -12580,7 +12581,7 @@
       <c r="Z58" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="AA58" s="43" t="s">
+      <c r="AA58" s="42" t="s">
         <v>487</v>
       </c>
       <c r="AB58" s="10"/>
@@ -13105,7 +13106,7 @@
       <c r="Z65" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AA65" s="43" t="s">
+      <c r="AA65" s="42" t="s">
         <v>487</v>
       </c>
       <c r="AC65" s="2" t="s">
@@ -13257,7 +13258,7 @@
       <c r="Z67" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="AA67" s="44"/>
+      <c r="AA67" s="43"/>
       <c r="AC67" s="2" t="s">
         <v>38</v>
       </c>
@@ -13749,7 +13750,7 @@
       <c r="Z74" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="AA74" s="44"/>
+      <c r="AA74" s="43"/>
       <c r="AC74" s="2" t="s">
         <v>38</v>
       </c>
@@ -14317,7 +14318,7 @@
       <c r="Z82" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AA82" s="43" t="s">
+      <c r="AA82" s="42" t="s">
         <v>487</v>
       </c>
       <c r="AC82" s="2" t="s">
@@ -14665,7 +14666,7 @@
       <c r="Z87" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="AA87" s="43" t="s">
+      <c r="AA87" s="42" t="s">
         <v>153</v>
       </c>
       <c r="AC87" s="2" t="s">
@@ -14862,7 +14863,7 @@
   <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14915,10 +14916,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>704</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>9</v>
+        <v>705</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>11</v>
@@ -14939,7 +14940,7 @@
         <v>23</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>25</v>
@@ -14962,7 +14963,7 @@
     </row>
     <row r="2" spans="1:23" ht="75">
       <c r="A2" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -15007,7 +15008,7 @@
         <v>43</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>44</v>
@@ -15028,7 +15029,7 @@
     </row>
     <row r="3" spans="1:23" ht="45">
       <c r="A3" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -15073,7 +15074,7 @@
         <v>43</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>44</v>
@@ -15094,7 +15095,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -15139,7 +15140,7 @@
         <v>43</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q4" s="14" t="s">
         <v>38</v>
@@ -15160,7 +15161,7 @@
     </row>
     <row r="5" spans="1:23" ht="45">
       <c r="A5" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -15169,7 +15170,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>63</v>
@@ -15205,7 +15206,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>44</v>
@@ -15224,9 +15225,9 @@
       </c>
       <c r="W5" s="13"/>
     </row>
-    <row r="6" spans="1:23" ht="30">
+    <row r="6" spans="1:23" ht="30.75">
       <c r="A6" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -15271,7 +15272,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>74</v>
@@ -15292,7 +15293,7 @@
     </row>
     <row r="7" spans="1:23" ht="30">
       <c r="A7" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B7" s="10">
         <v>6</v>
@@ -15301,7 +15302,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>78</v>
@@ -15337,7 +15338,7 @@
         <v>43</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>84</v>
@@ -15358,7 +15359,7 @@
     </row>
     <row r="8" spans="1:23" ht="30">
       <c r="A8" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B8" s="10">
         <v>7</v>
@@ -15403,7 +15404,7 @@
         <v>43</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>84</v>
@@ -15422,16 +15423,14 @@
       </c>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="1:23" ht="30">
+    <row r="9" spans="1:23" ht="30.75">
       <c r="A9" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>43</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>95</v>
@@ -15490,7 +15489,7 @@
     </row>
     <row r="10" spans="1:23" ht="45">
       <c r="A10" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B10" s="10">
         <v>9</v>
@@ -15535,7 +15534,7 @@
         <v>43</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>44</v>
@@ -15556,7 +15555,7 @@
     </row>
     <row r="11" spans="1:23" ht="30">
       <c r="A11" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B11" s="10">
         <v>10</v>
@@ -15601,7 +15600,7 @@
         <v>43</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>95</v>
@@ -15622,7 +15621,7 @@
     </row>
     <row r="12" spans="1:23" ht="30">
       <c r="A12" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B12" s="10">
         <v>11</v>
@@ -15631,7 +15630,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>108</v>
@@ -15667,7 +15666,7 @@
         <v>43</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>84</v>
@@ -15688,7 +15687,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B13" s="10">
         <v>12</v>
@@ -15733,7 +15732,7 @@
         <v>43</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>119</v>
@@ -15754,7 +15753,7 @@
     </row>
     <row r="14" spans="1:23" ht="45">
       <c r="A14" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B14" s="10">
         <v>13</v>
@@ -15799,7 +15798,7 @@
         <v>43</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>44</v>
@@ -15820,7 +15819,7 @@
     </row>
     <row r="15" spans="1:23" ht="45">
       <c r="A15" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B15" s="10">
         <v>14</v>
@@ -15865,7 +15864,7 @@
         <v>43</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>44</v>
@@ -15886,7 +15885,7 @@
     </row>
     <row r="16" spans="1:23" ht="45">
       <c r="A16" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B16" s="10">
         <v>15</v>
@@ -15931,7 +15930,7 @@
         <v>43</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>44</v>
@@ -15950,9 +15949,9 @@
       </c>
       <c r="W16" s="13"/>
     </row>
-    <row r="17" spans="1:23" ht="120">
+    <row r="17" spans="1:23" ht="121.5">
       <c r="A17" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B17" s="10">
         <v>16</v>
@@ -15997,7 +15996,7 @@
         <v>151</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>152</v>
@@ -16018,7 +16017,7 @@
     </row>
     <row r="18" spans="1:23" ht="90">
       <c r="A18" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B18" s="10">
         <v>17</v>
@@ -16027,7 +16026,7 @@
         <v>156</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>157</v>
@@ -16063,7 +16062,7 @@
         <v>164</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>119</v>
@@ -16084,7 +16083,7 @@
     </row>
     <row r="19" spans="1:23" ht="45">
       <c r="A19" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B19" s="10">
         <v>18</v>
@@ -16093,7 +16092,7 @@
         <v>167</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>168</v>
@@ -16129,7 +16128,7 @@
         <v>174</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>152</v>
@@ -16150,7 +16149,7 @@
     </row>
     <row r="20" spans="1:23" ht="75">
       <c r="A20" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B20" s="10">
         <v>19</v>
@@ -16159,7 +16158,7 @@
         <v>176</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>177</v>
@@ -16195,7 +16194,7 @@
         <v>38</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>38</v>
@@ -16216,7 +16215,7 @@
     </row>
     <row r="21" spans="1:23" ht="30">
       <c r="A21" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B21" s="10">
         <v>20</v>
@@ -16261,7 +16260,7 @@
         <v>38</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>190</v>
@@ -16282,7 +16281,7 @@
     </row>
     <row r="22" spans="1:23" ht="183.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B22" s="10">
         <v>21</v>
@@ -16291,7 +16290,7 @@
         <v>194</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>195</v>
@@ -16327,7 +16326,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>38</v>
@@ -16348,7 +16347,7 @@
     </row>
     <row r="23" spans="1:23" ht="75">
       <c r="A23" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B23" s="10">
         <v>22</v>
@@ -16393,7 +16392,7 @@
         <v>38</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>152</v>
@@ -16414,7 +16413,7 @@
     </row>
     <row r="24" spans="1:23" ht="30">
       <c r="A24" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B24" s="10">
         <v>23</v>
@@ -16459,7 +16458,7 @@
         <v>38</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>38</v>
@@ -16480,7 +16479,7 @@
     </row>
     <row r="25" spans="1:23" ht="30">
       <c r="A25" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B25" s="10">
         <v>24</v>
@@ -16525,7 +16524,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>152</v>
@@ -16546,7 +16545,7 @@
     </row>
     <row r="26" spans="1:23" ht="30">
       <c r="A26" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B26" s="10">
         <v>25</v>
@@ -16591,7 +16590,7 @@
         <v>38</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>38</v>
@@ -16612,7 +16611,7 @@
     </row>
     <row r="27" spans="1:23" ht="210">
       <c r="A27" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B27" s="10">
         <v>26</v>
@@ -16657,7 +16656,7 @@
         <v>151</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>243</v>
@@ -16678,7 +16677,7 @@
     </row>
     <row r="28" spans="1:23" ht="60">
       <c r="A28" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B28" s="10">
         <v>27</v>
@@ -16723,7 +16722,7 @@
         <v>38</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>38</v>
@@ -16744,7 +16743,7 @@
     </row>
     <row r="29" spans="1:23" ht="90">
       <c r="A29" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B29" s="10">
         <v>28</v>
@@ -16753,7 +16752,7 @@
         <v>250</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>251</v>
@@ -16789,7 +16788,7 @@
         <v>38</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>38</v>
@@ -16810,7 +16809,7 @@
     </row>
     <row r="30" spans="1:23" ht="45">
       <c r="A30" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B30" s="10">
         <v>29</v>
@@ -16819,7 +16818,7 @@
         <v>260</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>261</v>
@@ -16855,7 +16854,7 @@
         <v>38</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>38</v>
@@ -16876,7 +16875,7 @@
     </row>
     <row r="31" spans="1:23" ht="30">
       <c r="A31" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B31" s="10">
         <v>30</v>
@@ -16885,7 +16884,7 @@
         <v>269</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>38</v>
@@ -16921,7 +16920,7 @@
         <v>38</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>38</v>
@@ -16942,7 +16941,7 @@
     </row>
     <row r="32" spans="1:23" ht="100.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B32" s="10">
         <v>31</v>
@@ -16951,7 +16950,7 @@
         <v>276</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>277</v>
@@ -16987,7 +16986,7 @@
         <v>38</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>38</v>
@@ -17008,7 +17007,7 @@
     </row>
     <row r="33" spans="1:23" ht="75">
       <c r="A33" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B33" s="10">
         <v>32</v>
@@ -17017,7 +17016,7 @@
         <v>289</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>290</v>
@@ -17053,7 +17052,7 @@
         <v>38</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>38</v>
@@ -17074,7 +17073,7 @@
     </row>
     <row r="34" spans="1:23" ht="150">
       <c r="A34" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B34" s="10">
         <v>33</v>
@@ -17083,7 +17082,7 @@
         <v>298</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>299</v>
@@ -17119,7 +17118,7 @@
         <v>38</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>38</v>
@@ -17140,7 +17139,7 @@
     </row>
     <row r="35" spans="1:23" ht="45">
       <c r="A35" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B35" s="10">
         <v>34</v>
@@ -17149,7 +17148,7 @@
         <v>306</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>307</v>
@@ -17185,7 +17184,7 @@
         <v>38</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>38</v>
@@ -17206,7 +17205,7 @@
     </row>
     <row r="36" spans="1:23" ht="75">
       <c r="A36" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B36" s="10">
         <v>35</v>
@@ -17215,7 +17214,7 @@
         <v>312</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>313</v>
@@ -17251,7 +17250,7 @@
         <v>38</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>38</v>
@@ -17272,7 +17271,7 @@
     </row>
     <row r="37" spans="1:23" ht="90">
       <c r="A37" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B37" s="10">
         <v>36</v>
@@ -17281,7 +17280,7 @@
         <v>320</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>321</v>
@@ -17317,7 +17316,7 @@
         <v>38</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>327</v>
@@ -17338,7 +17337,7 @@
     </row>
     <row r="38" spans="1:23" ht="30">
       <c r="A38" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B38" s="10">
         <v>37</v>
@@ -17347,7 +17346,7 @@
         <v>330</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>331</v>
@@ -17383,7 +17382,7 @@
         <v>38</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>38</v>
@@ -17404,7 +17403,7 @@
     </row>
     <row r="39" spans="1:23" ht="149.25" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B39" s="10">
         <v>38</v>
@@ -17413,7 +17412,7 @@
         <v>335</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>336</v>
@@ -17449,7 +17448,7 @@
         <v>38</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q39" s="10" t="s">
         <v>38</v>
@@ -17469,7 +17468,7 @@
     </row>
     <row r="40" spans="1:23" ht="75">
       <c r="A40" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B40" s="10">
         <v>39</v>
@@ -17478,7 +17477,7 @@
         <v>343</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>344</v>
@@ -17514,7 +17513,7 @@
         <v>38</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>38</v>
@@ -17534,7 +17533,7 @@
     </row>
     <row r="41" spans="1:23" ht="45">
       <c r="A41" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B41" s="10">
         <v>40</v>
@@ -17543,7 +17542,7 @@
         <v>347</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>348</v>
@@ -17579,7 +17578,7 @@
         <v>38</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q41" s="10" t="s">
         <v>353</v>
@@ -17599,7 +17598,7 @@
     </row>
     <row r="42" spans="1:23" ht="75">
       <c r="A42" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B42" s="10">
         <v>41</v>
@@ -17608,7 +17607,7 @@
         <v>358</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>359</v>
@@ -17644,7 +17643,7 @@
         <v>38</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>361</v>
@@ -17664,7 +17663,7 @@
     </row>
     <row r="43" spans="1:23" ht="257.25" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B43" s="10">
         <v>42</v>
@@ -17707,7 +17706,7 @@
         <v>38</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q43" s="10" t="s">
         <v>38</v>
@@ -17727,7 +17726,7 @@
     </row>
     <row r="44" spans="1:23" ht="300">
       <c r="A44" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B44" s="10">
         <v>43</v>
@@ -17736,7 +17735,7 @@
         <v>372</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>373</v>
@@ -17772,7 +17771,7 @@
         <v>38</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>38</v>
@@ -17792,7 +17791,7 @@
     </row>
     <row r="45" spans="1:23" ht="75">
       <c r="A45" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B45" s="10">
         <v>44</v>
@@ -17837,7 +17836,7 @@
         <v>38</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>38</v>
@@ -17857,7 +17856,7 @@
     </row>
     <row r="46" spans="1:23" ht="375">
       <c r="A46" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B46" s="10">
         <v>45</v>
@@ -17902,7 +17901,7 @@
         <v>38</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>38</v>
@@ -17922,7 +17921,7 @@
     </row>
     <row r="47" spans="1:23" ht="90">
       <c r="A47" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B47" s="10">
         <v>46</v>
@@ -17967,7 +17966,7 @@
         <v>38</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>38</v>
@@ -17987,7 +17986,7 @@
     </row>
     <row r="48" spans="1:23" ht="150">
       <c r="A48" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B48" s="10">
         <v>47</v>
@@ -18032,7 +18031,7 @@
         <v>38</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>38</v>
@@ -18052,7 +18051,7 @@
     </row>
     <row r="49" spans="1:21" ht="60">
       <c r="A49" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B49" s="10">
         <v>48</v>
@@ -18097,7 +18096,7 @@
         <v>38</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>38</v>
@@ -18117,7 +18116,7 @@
     </row>
     <row r="50" spans="1:21" ht="45">
       <c r="A50" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B50" s="10">
         <v>49</v>
@@ -18162,7 +18161,7 @@
         <v>38</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>38</v>
@@ -18182,7 +18181,7 @@
     </row>
     <row r="51" spans="1:21" ht="210">
       <c r="A51" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B51" s="10">
         <v>50</v>
@@ -18227,7 +18226,7 @@
         <v>38</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q51" s="10" t="s">
         <v>38</v>
@@ -18247,7 +18246,7 @@
     </row>
     <row r="52" spans="1:21" ht="30">
       <c r="A52" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B52" s="10">
         <v>51</v>
@@ -18292,7 +18291,7 @@
         <v>38</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q52" s="10" t="s">
         <v>38</v>
@@ -18312,7 +18311,7 @@
     </row>
     <row r="53" spans="1:21" ht="17.25" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B53" s="10">
         <v>52</v>
@@ -18357,7 +18356,7 @@
         <v>38</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q53" s="10" t="s">
         <v>38</v>
@@ -18377,7 +18376,7 @@
     </row>
     <row r="54" spans="1:21" ht="135">
       <c r="A54" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B54" s="10">
         <v>53</v>
@@ -18422,7 +18421,7 @@
         <v>38</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>38</v>
@@ -18442,7 +18441,7 @@
     </row>
     <row r="55" spans="1:21" ht="45">
       <c r="A55" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B55" s="10">
         <v>54</v>
@@ -18487,7 +18486,7 @@
         <v>38</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>38</v>
@@ -18507,7 +18506,7 @@
     </row>
     <row r="56" spans="1:21" ht="30">
       <c r="A56" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B56" s="10">
         <v>55</v>
@@ -18552,7 +18551,7 @@
         <v>38</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q56" s="10" t="s">
         <v>38</v>
@@ -18572,7 +18571,7 @@
     </row>
     <row r="57" spans="1:21" ht="30">
       <c r="A57" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B57" s="10">
         <v>56</v>
@@ -18617,7 +18616,7 @@
         <v>38</v>
       </c>
       <c r="P57" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q57" s="10" t="s">
         <v>38</v>
@@ -18637,7 +18636,7 @@
     </row>
     <row r="58" spans="1:21" ht="45">
       <c r="A58" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B58" s="10">
         <v>57</v>
@@ -18682,7 +18681,7 @@
         <v>38</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>486</v>
@@ -18702,7 +18701,7 @@
     </row>
     <row r="59" spans="1:21" ht="75">
       <c r="A59" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B59" s="10">
         <v>58</v>
@@ -18747,7 +18746,7 @@
         <v>38</v>
       </c>
       <c r="P59" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q59" s="10" t="s">
         <v>38</v>
@@ -18767,7 +18766,7 @@
     </row>
     <row r="60" spans="1:21" ht="30">
       <c r="A60" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B60" s="10">
         <v>59</v>
@@ -18812,7 +18811,7 @@
         <v>38</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>38</v>
@@ -18832,7 +18831,7 @@
     </row>
     <row r="61" spans="1:21" ht="30">
       <c r="A61" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B61" s="10">
         <v>60</v>
@@ -18877,7 +18876,7 @@
         <v>38</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q61" s="10" t="s">
         <v>38</v>
@@ -18897,7 +18896,7 @@
     </row>
     <row r="62" spans="1:21" ht="30">
       <c r="A62" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B62" s="10">
         <v>61</v>
@@ -18942,7 +18941,7 @@
         <v>38</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>38</v>
@@ -18962,7 +18961,7 @@
     </row>
     <row r="63" spans="1:21" ht="45">
       <c r="A63" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B63" s="10">
         <v>62</v>
@@ -19007,7 +19006,7 @@
         <v>38</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>38</v>
@@ -19027,7 +19026,7 @@
     </row>
     <row r="64" spans="1:21" ht="30">
       <c r="A64" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B64" s="10">
         <v>63</v>
@@ -19072,7 +19071,7 @@
         <v>521</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>38</v>
@@ -19092,7 +19091,7 @@
     </row>
     <row r="65" spans="1:21" ht="45">
       <c r="A65" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B65" s="10">
         <v>64</v>
@@ -19137,7 +19136,7 @@
         <v>38</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>529</v>
@@ -19157,7 +19156,7 @@
     </row>
     <row r="66" spans="1:21" ht="45">
       <c r="A66" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B66" s="10">
         <v>65</v>
@@ -19202,7 +19201,7 @@
         <v>38</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>38</v>
@@ -19222,7 +19221,7 @@
     </row>
     <row r="67" spans="1:21" ht="105">
       <c r="A67" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B67" s="10">
         <v>66</v>
@@ -19267,7 +19266,7 @@
         <v>545</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>546</v>
@@ -19287,7 +19286,7 @@
     </row>
     <row r="68" spans="1:21" ht="45">
       <c r="A68" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B68" s="10">
         <v>67</v>
@@ -19332,7 +19331,7 @@
         <v>38</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>38</v>
@@ -19352,7 +19351,7 @@
     </row>
     <row r="69" spans="1:21" ht="45">
       <c r="A69" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B69" s="10">
         <v>68</v>
@@ -19397,7 +19396,7 @@
         <v>38</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>38</v>
@@ -19417,7 +19416,7 @@
     </row>
     <row r="70" spans="1:21" ht="90">
       <c r="A70" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B70" s="10">
         <v>69</v>
@@ -19462,7 +19461,7 @@
         <v>38</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>38</v>
@@ -19482,7 +19481,7 @@
     </row>
     <row r="71" spans="1:21" ht="30">
       <c r="A71" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B71" s="10">
         <v>70</v>
@@ -19527,7 +19526,7 @@
         <v>38</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>38</v>
@@ -19547,7 +19546,7 @@
     </row>
     <row r="72" spans="1:21" ht="30">
       <c r="A72" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B72" s="10">
         <v>71</v>
@@ -19592,7 +19591,7 @@
         <v>38</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>38</v>
@@ -19612,7 +19611,7 @@
     </row>
     <row r="73" spans="1:21" ht="30">
       <c r="A73" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B73" s="10">
         <v>72</v>
@@ -19657,7 +19656,7 @@
         <v>38</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>38</v>
@@ -19677,7 +19676,7 @@
     </row>
     <row r="74" spans="1:21" ht="45">
       <c r="A74" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B74" s="10">
         <v>73</v>
@@ -19722,7 +19721,7 @@
         <v>38</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>596</v>
@@ -19742,7 +19741,7 @@
     </row>
     <row r="75" spans="1:21" ht="30">
       <c r="A75" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B75" s="10">
         <v>74</v>
@@ -19787,7 +19786,7 @@
         <v>38</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>38</v>
@@ -19807,7 +19806,7 @@
     </row>
     <row r="76" spans="1:21" ht="30">
       <c r="A76" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B76" s="10">
         <v>75</v>
@@ -19852,7 +19851,7 @@
         <v>38</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>38</v>
@@ -19872,7 +19871,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B77" s="10">
         <v>76</v>
@@ -19917,7 +19916,7 @@
         <v>38</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>38</v>
@@ -19937,7 +19936,7 @@
     </row>
     <row r="78" spans="1:21" ht="45">
       <c r="A78" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B78" s="10">
         <v>77</v>
@@ -19982,7 +19981,7 @@
         <v>38</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>38</v>
@@ -20002,7 +20001,7 @@
     </row>
     <row r="79" spans="1:21" ht="30">
       <c r="A79" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B79" s="10">
         <v>78</v>
@@ -20047,7 +20046,7 @@
         <v>38</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>38</v>
@@ -20067,7 +20066,7 @@
     </row>
     <row r="80" spans="1:21" ht="60">
       <c r="A80" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B80" s="10">
         <v>79</v>
@@ -20112,7 +20111,7 @@
         <v>38</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>38</v>
@@ -20132,7 +20131,7 @@
     </row>
     <row r="81" spans="1:22" ht="45">
       <c r="A81" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B81" s="10">
         <v>80</v>
@@ -20177,7 +20176,7 @@
         <v>38</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>38</v>
@@ -20197,7 +20196,7 @@
     </row>
     <row r="82" spans="1:22" ht="30">
       <c r="A82" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B82" s="10">
         <v>81</v>
@@ -20242,7 +20241,7 @@
         <v>38</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>529</v>
@@ -20262,7 +20261,7 @@
     </row>
     <row r="83" spans="1:22" ht="30">
       <c r="A83" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B83" s="10">
         <v>82</v>
@@ -20307,7 +20306,7 @@
         <v>38</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>38</v>
@@ -20327,7 +20326,7 @@
     </row>
     <row r="84" spans="1:22" ht="45">
       <c r="A84" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B84" s="10">
         <v>83</v>
@@ -20372,7 +20371,7 @@
         <v>38</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>38</v>
@@ -20392,7 +20391,7 @@
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B85" s="10">
         <v>84</v>
@@ -20437,7 +20436,7 @@
         <v>38</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>38</v>
@@ -20457,7 +20456,7 @@
     </row>
     <row r="86" spans="1:22" ht="45">
       <c r="A86" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B86" s="10">
         <v>85</v>
@@ -20502,7 +20501,7 @@
         <v>38</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>38</v>
@@ -20522,7 +20521,7 @@
     </row>
     <row r="87" spans="1:22" ht="90">
       <c r="A87" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B87" s="10">
         <v>86</v>
@@ -20567,7 +20566,7 @@
         <v>38</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>699</v>
@@ -20587,58 +20586,58 @@
     </row>
     <row r="88" spans="1:22" ht="90">
       <c r="A88" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B88" s="26">
         <v>87</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>129</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="T88" s="27" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="U88" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V88" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="30">
       <c r="A89" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B89" s="26">
         <v>88</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H89" s="30"/>
       <c r="J89" s="27" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M89" s="27" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="N89" s="27" t="s">
         <v>208</v>
@@ -20648,80 +20647,80 @@
         <v>152</v>
       </c>
       <c r="S89" s="20" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="T89" s="27" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="U89" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V89" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="45">
       <c r="A90" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B90" s="26">
         <v>90</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H90" s="30">
         <v>91</v>
       </c>
       <c r="L90" s="27" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M90" s="27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="N90" s="27" t="s">
         <v>208</v>
       </c>
       <c r="P90" s="27" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Q90" s="27" t="s">
         <v>152</v>
       </c>
       <c r="T90" s="27" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="U90" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V90" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="90">
       <c r="A91" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B91" s="26">
         <v>91</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H91" s="30">
         <v>21</v>
@@ -20736,281 +20735,281 @@
         <v>208</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="S91" s="20" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="T91" s="27" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="U91" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V91" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="30">
       <c r="A92" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B92" s="26">
         <v>92</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T92" s="27" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="U92" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V92" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="30">
       <c r="A93" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B93" s="26">
         <v>93</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>105</v>
       </c>
       <c r="T93" s="27" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="U93" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="V93" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="30">
       <c r="A94" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B94" s="26">
         <v>94</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>118</v>
       </c>
       <c r="V94" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="30">
       <c r="A95" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B95" s="26">
         <v>95</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="V95" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="30">
       <c r="A96" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B96" s="26">
         <v>96</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="V96" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="30">
       <c r="A97" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B97" s="26">
         <v>97</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="V97" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="30">
       <c r="A98" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B98" s="26">
         <v>98</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="V98" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="75">
       <c r="A99" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B99" s="26">
         <v>99</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="V99" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="60">
       <c r="A100" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B100" s="26">
         <v>100</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F100" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="G100" s="27" t="s">
         <v>759</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>757</v>
       </c>
       <c r="H100" s="30">
         <v>880</v>
       </c>
       <c r="Q100" s="27" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="S100" s="20" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="V100" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="60">
       <c r="A101" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B101" s="26">
         <v>101</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="Q101" s="27"/>
     </row>
     <row r="102" spans="1:22" ht="60">
       <c r="A102" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B102" s="26">
         <v>102</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Q102" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="S102" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="V102" s="29" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B103" s="26">
         <v>103</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H103" s="30">
         <v>187</v>
@@ -21022,33 +21021,33 @@
         <v>643</v>
       </c>
       <c r="L103" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="T103" s="27" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="V103" s="29" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="30">
       <c r="A104" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B104" s="26">
         <v>104</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H104" s="30">
         <v>17</v>
@@ -21060,62 +21059,62 @@
         <v>643</v>
       </c>
       <c r="L104" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="T104" s="27" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="V104" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="45">
       <c r="A105" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B105" s="26">
         <v>105</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I105" s="30" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="T105" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="V105" s="29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="30">
       <c r="A106" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B106" s="26">
         <v>106</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H106" s="30">
         <v>25187</v>
@@ -21124,125 +21123,125 @@
         <v>7918679</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="M106" s="27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="Q106" s="27" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="R106" s="27"/>
       <c r="T106" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="V106" s="29" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="30">
       <c r="A107" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B107" s="26">
         <v>107</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H107" s="30">
         <v>241</v>
       </c>
       <c r="K107" s="27" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="M107" s="27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="N107" s="27" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="Q107" s="27" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="T107" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="V107" s="29" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="45">
       <c r="A108" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B108" s="26">
         <v>108</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D108" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="K108" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="M108" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="N108" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q108" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="T108" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="E108" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="G108" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="M108" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="N108" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q108" s="27" t="s">
-        <v>789</v>
-      </c>
-      <c r="T108" s="27" t="s">
-        <v>781</v>
-      </c>
       <c r="V108" s="29" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="60">
       <c r="A109" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B109" s="26">
         <v>109</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G109" s="27" t="s">
         <v>73</v>
@@ -21254,46 +21253,46 @@
         <v>1850222</v>
       </c>
       <c r="J109" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K109" s="27" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="L109" s="27" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M109" s="27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="Q109" s="27" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="T109" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="U109" s="20"/>
     </row>
     <row r="110" spans="1:22" ht="30">
       <c r="A110" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B110" s="26">
         <v>110</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>65</v>
@@ -21302,80 +21301,80 @@
         <v>5005</v>
       </c>
       <c r="J110" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K110" s="27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L110" s="27" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M110" s="27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="Q110" s="27" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="T110" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="V110" s="29" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="45">
       <c r="A111" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B111" s="26">
         <v>111</v>
       </c>
       <c r="C111" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I111" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="J111" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="K111" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="D111" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="G111" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="I111" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="J111" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="K111" s="27" t="s">
-        <v>812</v>
-      </c>
       <c r="L111" s="27" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M111" s="27" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="Q111" s="27" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="T111" s="27" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="V111" s="29" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B112" s="26">
         <v>112</v>
@@ -21384,7 +21383,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B113" s="26">
         <v>113</v>
@@ -21392,7 +21391,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B114" s="26">
         <v>114</v>
@@ -21400,7 +21399,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B115" s="26">
         <v>115</v>
@@ -21408,7 +21407,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B116" s="26">
         <v>116</v>
@@ -21416,7 +21415,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B117" s="26">
         <v>117</v>
@@ -21424,7 +21423,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B118" s="26">
         <v>118</v>
@@ -21432,7 +21431,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B119" s="26">
         <v>119</v>
@@ -21440,7 +21439,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B120" s="26">
         <v>120</v>
@@ -21448,7 +21447,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B121" s="26">
         <v>121</v>
@@ -21456,7 +21455,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B122" s="26">
         <v>122</v>
@@ -21464,7 +21463,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B123" s="26">
         <v>123</v>
@@ -21472,7 +21471,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B124" s="26">
         <v>124</v>
@@ -21480,7 +21479,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B125" s="26">
         <v>125</v>
@@ -21488,7 +21487,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B126" s="26">
         <v>126</v>
@@ -21496,7 +21495,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B127" s="26">
         <v>127</v>
@@ -21693,15 +21692,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E3261DFB21BBD4882DEE3D57B3A8DC9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4798215a62fbb9e52dad0e9db550b163">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa2aa457-c057-42f4-8990-882fee487950" xmlns:ns3="227b4bc9-57bc-4bdb-842d-b6a969044232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f741a0c603428c0999607b924cd2def" ns2:_="" ns3:_="">
     <xsd:import namespace="fa2aa457-c057-42f4-8990-882fee487950"/>
@@ -21926,14 +21916,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646C8EF6-25A7-43FD-9FE9-5E3A16AF2856}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F71351-E2A2-42C0-A535-7B4ADC27D93B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F71351-E2A2-42C0-A535-7B4ADC27D93B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
 </file>
--- a/cortab/corpusTable_prep.xlsx
+++ b/cortab/corpusTable_prep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcharvat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD78659A-2D4C-4C62-942D-5C2B0876F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE593CD4-7F0C-49FF-B0AE-B96EF30F1A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3129,7 +3129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="823">
   <si>
     <t>id</t>
   </si>
@@ -3213,7 +3213,7 @@
     <t>corpusLicence</t>
   </si>
   <si>
-    <t>corpusLicence_consolidatedVocab</t>
+    <t>corpusLicence_link</t>
   </si>
   <si>
     <t>corpusLicence_comments</t>
@@ -7830,8 +7830,8 @@
   <dimension ref="A1:AI87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="W6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -7852,7 +7852,8 @@
     <col min="22" max="23" width="21.5703125" style="2" customWidth="1"/>
     <col min="24" max="24" width="23.140625" style="2" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" style="2" customWidth="1"/>
-    <col min="26" max="27" width="13.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="21.5703125" style="2" customWidth="1"/>
     <col min="28" max="28" width="27.28515625" style="2" customWidth="1"/>
     <col min="29" max="29" width="34.5703125" style="2" customWidth="1"/>
     <col min="30" max="31" width="40.5703125" style="2" customWidth="1"/>
@@ -7941,7 +7942,7 @@
       <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="6" t="s">
@@ -9104,7 +9105,7 @@
       </c>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:35" ht="76.5">
+    <row r="16" spans="1:35" ht="45.75">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -9166,7 +9167,9 @@
       <c r="AA16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="10"/>
+      <c r="AB16" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="AC16" s="10" t="s">
         <v>38</v>
       </c>
@@ -14842,7 +14845,7 @@
     <hyperlink ref="AA14" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
     <hyperlink ref="AA15" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="AA16" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="AA17" r:id="rId155" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-sa-4-0" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="AA17" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="AA19" r:id="rId156" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-sa-4-0" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="AA23" r:id="rId157" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-sa-4-0" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
     <hyperlink ref="AA25" r:id="rId158" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-sa-4-0" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
@@ -14851,10 +14854,11 @@
     <hyperlink ref="AA65" r:id="rId161" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-4-0" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
     <hyperlink ref="AA82" r:id="rId162" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-4-0" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
     <hyperlink ref="AA87" r:id="rId163" display="https://vocabs.acdh.oeaw.ac.at/archelicenses/cc-by-sa-4-0" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="AB16" r:id="rId164" xr:uid="{C42CBCE2-3D03-451D-A682-AC2DD701195A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" r:id="rId164"/>
-  <legacyDrawing r:id="rId165"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" r:id="rId165"/>
+  <legacyDrawing r:id="rId166"/>
 </worksheet>
 </file>
 
@@ -21692,6 +21696,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E3261DFB21BBD4882DEE3D57B3A8DC9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4798215a62fbb9e52dad0e9db550b163">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa2aa457-c057-42f4-8990-882fee487950" xmlns:ns3="227b4bc9-57bc-4bdb-842d-b6a969044232" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f741a0c603428c0999607b924cd2def" ns2:_="" ns3:_="">
     <xsd:import namespace="fa2aa457-c057-42f4-8990-882fee487950"/>
@@ -21916,23 +21929,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646C8EF6-25A7-43FD-9FE9-5E3A16AF2856}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F71351-E2A2-42C0-A535-7B4ADC27D93B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91278AFB-E793-4185-9010-686C9F205115}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F71351-E2A2-42C0-A535-7B4ADC27D93B}"/>
 </file>